--- a/Data/aearep-1107/candidatepackages.xlsx
+++ b/Data/aearep-1107/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,27 +22,18 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
     <t>ftools</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>lambda</t>
   </si>
   <si>
@@ -55,39 +46,27 @@
     <t>spell</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
     <t>forest</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
     <t>combine</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
     <t>mc</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>dash</t>
   </si>
   <si>
@@ -106,12 +85,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1107</t>
-  </si>
-  <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1107/120070</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1107/120070-fake data/code</t>
   </si>
   <si>
@@ -119,12 +92,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>clean_customs.do</t>
@@ -231,7 +198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -239,13 +206,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -265,7 +232,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -277,7 +244,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -289,7 +256,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -301,7 +268,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -313,10 +280,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>390</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.128925621509552</v>
       </c>
       <c r="D7"/>
     </row>
@@ -325,10 +292,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D8"/>
     </row>
@@ -337,10 +304,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>279</v>
+        <v>539</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D9"/>
     </row>
@@ -349,10 +316,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>417</v>
+        <v>751</v>
       </c>
       <c r="C10">
-        <v>0.13826259970664978</v>
+        <v>0.24826446175575256</v>
       </c>
       <c r="D10"/>
     </row>
@@ -361,10 +328,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>565</v>
+        <v>955</v>
       </c>
       <c r="C11">
-        <v>0.18733422458171844</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D11"/>
     </row>
@@ -373,10 +340,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>594</v>
+        <v>998</v>
       </c>
       <c r="C12">
-        <v>0.19694960117340088</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D12"/>
     </row>
@@ -385,10 +352,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>826</v>
+        <v>1125</v>
       </c>
       <c r="C13">
-        <v>0.27387267351150513</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D13"/>
     </row>
@@ -397,10 +364,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>985</v>
+        <v>1226</v>
       </c>
       <c r="C14">
-        <v>0.32659152150154114</v>
+        <v>0.40528926253318787</v>
       </c>
       <c r="D14"/>
     </row>
@@ -409,10 +376,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1124</v>
+        <v>1306</v>
       </c>
       <c r="C15">
-        <v>0.37267905473709106</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D15"/>
     </row>
@@ -421,10 +388,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1133</v>
+        <v>1414</v>
       </c>
       <c r="C16">
-        <v>0.37566313147544861</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D16"/>
     </row>
@@ -433,10 +400,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1194</v>
+        <v>1767</v>
       </c>
       <c r="C17">
-        <v>0.39588859677314758</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D17"/>
     </row>
@@ -445,10 +412,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1375</v>
+        <v>2436</v>
       </c>
       <c r="C18">
-        <v>0.4559018611907959</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D18"/>
     </row>
@@ -457,96 +424,12 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1423</v>
+        <v>2785</v>
       </c>
       <c r="C19">
-        <v>0.47181698679924011</v>
+        <v>0.92066115140914917</v>
       </c>
       <c r="D19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1472</v>
-      </c>
-      <c r="C20">
-        <v>0.48806366324424744</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1755</v>
-      </c>
-      <c r="C21">
-        <v>0.58189654350280762</v>
-      </c>
-      <c r="D21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1798</v>
-      </c>
-      <c r="C22">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D22"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1817</v>
-      </c>
-      <c r="C23">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1859</v>
-      </c>
-      <c r="C24">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2424</v>
-      </c>
-      <c r="C25">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>2714</v>
-      </c>
-      <c r="C26">
-        <v>0.89986735582351685</v>
-      </c>
-      <c r="D26"/>
     </row>
   </sheetData>
 </worksheet>
@@ -554,199 +437,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B22"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
